--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H2">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J2">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N2">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P2">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q2">
-        <v>0.1155377796357778</v>
+        <v>0.009953335306666667</v>
       </c>
       <c r="R2">
-        <v>1.039840016722</v>
+        <v>0.08958001776000001</v>
       </c>
       <c r="S2">
-        <v>0.000645014945136121</v>
+        <v>5.479543833593783E-05</v>
       </c>
       <c r="T2">
-        <v>0.0006450149451361211</v>
+        <v>5.479543833593782E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H3">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J3">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.092074</v>
       </c>
       <c r="O3">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P3">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q3">
-        <v>0.08874413355955556</v>
+        <v>0.01652559497666667</v>
       </c>
       <c r="R3">
-        <v>0.798697202036</v>
+        <v>0.14873035479</v>
       </c>
       <c r="S3">
-        <v>0.0004954335509953301</v>
+        <v>9.097726466645879E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004954335509953302</v>
+        <v>9.097726466645877E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.891504666666667</v>
+        <v>0.538445</v>
       </c>
       <c r="H4">
-        <v>8.674514</v>
+        <v>1.615335</v>
       </c>
       <c r="I4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="J4">
-        <v>0.1213590456377548</v>
+        <v>0.03371608002174246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N4">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O4">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P4">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q4">
-        <v>21.53405884531867</v>
+        <v>6.097889445518334</v>
       </c>
       <c r="R4">
-        <v>193.806529607868</v>
+        <v>54.881005009665</v>
       </c>
       <c r="S4">
-        <v>0.1202185971416233</v>
+        <v>0.03357030731874007</v>
       </c>
       <c r="T4">
-        <v>0.1202185971416233</v>
+        <v>0.03357030731874006</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>36.121289</v>
       </c>
       <c r="I5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J5">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N5">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P5">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q5">
-        <v>0.4811074751441111</v>
+        <v>0.222571355864889</v>
       </c>
       <c r="R5">
-        <v>4.329967276297</v>
+        <v>2.003142202784</v>
       </c>
       <c r="S5">
-        <v>0.002685887790668269</v>
+        <v>0.001225307359782392</v>
       </c>
       <c r="T5">
-        <v>0.00268588779066827</v>
+        <v>0.001225307359782391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.121289</v>
       </c>
       <c r="I6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J6">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.092074</v>
       </c>
       <c r="O6">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P6">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q6">
-        <v>0.3695368403762222</v>
+        <v>0.3695368403762223</v>
       </c>
       <c r="R6">
-        <v>3.325831563386</v>
+        <v>3.325831563386001</v>
       </c>
       <c r="S6">
-        <v>0.002063020300134227</v>
+        <v>0.002034386718201888</v>
       </c>
       <c r="T6">
-        <v>0.002063020300134227</v>
+        <v>0.002034386718201888</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.121289</v>
       </c>
       <c r="I7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905094</v>
       </c>
       <c r="J7">
-        <v>0.505347637947847</v>
+        <v>0.7539416098905093</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N7">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O7">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P7">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q7">
-        <v>89.66934203976868</v>
+        <v>136.3578619615235</v>
       </c>
       <c r="R7">
-        <v>807.024078357918</v>
+        <v>1227.220757653711</v>
       </c>
       <c r="S7">
-        <v>0.5005987298570445</v>
+        <v>0.7506819158125252</v>
       </c>
       <c r="T7">
-        <v>0.5005987298570446</v>
+        <v>0.7506819158125249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H8">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J8">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03995766666666667</v>
+        <v>0.01848533333333334</v>
       </c>
       <c r="N8">
-        <v>0.119873</v>
+        <v>0.05545600000000001</v>
       </c>
       <c r="O8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="P8">
-        <v>0.005314930928687667</v>
+        <v>0.001625201930372746</v>
       </c>
       <c r="Q8">
-        <v>0.3553874431423333</v>
+        <v>0.06268564467555555</v>
       </c>
       <c r="R8">
-        <v>3.198486988281</v>
+        <v>0.56417080208</v>
       </c>
       <c r="S8">
-        <v>0.001984028192883277</v>
+        <v>0.0003450991322544165</v>
       </c>
       <c r="T8">
-        <v>0.001984028192883277</v>
+        <v>0.0003450991322544164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H9">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J9">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.092074</v>
       </c>
       <c r="O9">
-        <v>0.004082378436578614</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="P9">
-        <v>0.004082378436578615</v>
+        <v>0.002698334581238102</v>
       </c>
       <c r="Q9">
-        <v>0.2729717571086667</v>
+        <v>0.1040774316188889</v>
       </c>
       <c r="R9">
-        <v>2.456745813978</v>
+        <v>0.93669688457</v>
       </c>
       <c r="S9">
-        <v>0.001523924585449057</v>
+        <v>0.0005729705983697552</v>
       </c>
       <c r="T9">
-        <v>0.001523924585449057</v>
+        <v>0.000572970598369755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.894098999999999</v>
+        <v>3.391101666666666</v>
       </c>
       <c r="H10">
-        <v>26.682297</v>
+        <v>10.173305</v>
       </c>
       <c r="I10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877482</v>
       </c>
       <c r="J10">
-        <v>0.3732933164143982</v>
+        <v>0.2123423100877481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.447354000000001</v>
+        <v>11.32499966666667</v>
       </c>
       <c r="N10">
-        <v>22.342062</v>
+        <v>33.974999</v>
       </c>
       <c r="O10">
-        <v>0.9906026906347337</v>
+        <v>0.9956764634883892</v>
       </c>
       <c r="P10">
-        <v>0.9906026906347338</v>
+        <v>0.995676463488389</v>
       </c>
       <c r="Q10">
-        <v>66.237503764046</v>
+        <v>38.40422524463278</v>
       </c>
       <c r="R10">
-        <v>596.1375338764141</v>
+        <v>345.638027201695</v>
       </c>
       <c r="S10">
-        <v>0.3697853636360659</v>
+        <v>0.211424240357124</v>
       </c>
       <c r="T10">
-        <v>0.369785363636066</v>
+        <v>0.211424240357124</v>
       </c>
     </row>
   </sheetData>
